--- a/Users Loads1.xlsx
+++ b/Users Loads1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.055334795537886</v>
+        <v>0.3058092408857903</v>
       </c>
       <c r="C2" t="n">
-        <v>5.876999250532668</v>
+        <v>5.844744862233049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4405552443927894</v>
+        <v>0.242873643729681</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.755566467822913</v>
+        <v>0.6048510375100669</v>
       </c>
       <c r="C3" t="n">
-        <v>8.570929415987594</v>
+        <v>5.672649111655751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2815256647982165</v>
+        <v>0.4400639371526495</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.18910488163878</v>
+        <v>0.9989845561858701</v>
       </c>
       <c r="C4" t="n">
-        <v>6.508469388098457</v>
+        <v>6.881064891881564</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5922863646919774</v>
+        <v>0.2542216568750769</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.04773513745121</v>
+        <v>2.140224459467431</v>
       </c>
       <c r="C5" t="n">
-        <v>5.875749798027219</v>
+        <v>2.472036716852426</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2742814153941506</v>
+        <v>0.1206177576892311</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.41944641649757</v>
+        <v>2.239913871941665</v>
       </c>
       <c r="C6" t="n">
-        <v>5.51463552779996</v>
+        <v>5.397029949307138</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2190897832091006</v>
+        <v>0.3766333408882474</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.83712447639062</v>
+        <v>2.276587598396641</v>
       </c>
       <c r="C7" t="n">
-        <v>11.61180853961049</v>
+        <v>8.525057439770363</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3275409281532848</v>
+        <v>0.3580271708109239</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.17919226102964</v>
+        <v>2.384959978555218</v>
       </c>
       <c r="C8" t="n">
-        <v>3.632070730644821</v>
+        <v>5.978254499500459</v>
       </c>
       <c r="D8" t="n">
-        <v>0.655491434647236</v>
+        <v>0.1336453416516005</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.21012513367507</v>
+        <v>2.477078748479896</v>
       </c>
       <c r="C9" t="n">
-        <v>4.10762974548274</v>
+        <v>3.373242797000367</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193572067273706</v>
+        <v>0.3858847661877544</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.94159500023082</v>
+        <v>2.871376727575656</v>
       </c>
       <c r="C10" t="n">
-        <v>4.30505332112781</v>
+        <v>6.398508634040901</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3378995995364362</v>
+        <v>0.2652250772440751</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.66167743670952</v>
+        <v>3.214562558510038</v>
       </c>
       <c r="C11" t="n">
-        <v>3.086412869217286</v>
+        <v>3.074869627272457</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2729770306919543</v>
+        <v>0.2483353392793328</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31.87838239635641</v>
+        <v>3.463415977887511</v>
       </c>
       <c r="C12" t="n">
-        <v>6.784536676738883</v>
+        <v>7.48321753010698</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3722034502530553</v>
+        <v>0.4627791603374011</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34.32414268132707</v>
+        <v>3.577990111955713</v>
       </c>
       <c r="C13" t="n">
-        <v>5.097095366408197</v>
+        <v>8.757591611741642</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2213942165484732</v>
+        <v>0.4398404946554377</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>36.05237493339018</v>
+        <v>3.599823251642901</v>
       </c>
       <c r="C14" t="n">
-        <v>5.619310220200889</v>
+        <v>4.88768327489112</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2428175891149013</v>
+        <v>0.3433317926452901</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37.46777951757434</v>
+        <v>4.271258268431787</v>
       </c>
       <c r="C15" t="n">
-        <v>2.992413906985467</v>
+        <v>9.982841199262069</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2592693174452334</v>
+        <v>0.5517132834625345</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>38.34907921015589</v>
+        <v>4.860465068347414</v>
       </c>
       <c r="C16" t="n">
-        <v>8.935889596116164</v>
+        <v>8.781858418706069</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3723701326950274</v>
+        <v>0.4778626955949772</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46.89951868747523</v>
+        <v>4.875344432025228</v>
       </c>
       <c r="C17" t="n">
-        <v>6.593608573863379</v>
+        <v>6.19042483268511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.237654305871192</v>
+        <v>0.453318655738434</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>52.18463728588211</v>
+        <v>5.62479455561737</v>
       </c>
       <c r="C18" t="n">
-        <v>7.497164614115112</v>
+        <v>3.467195777549332</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2856205108056981</v>
+        <v>0.1310041404532052</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>56.07804541563308</v>
+        <v>7.063756316204797</v>
       </c>
       <c r="C19" t="n">
-        <v>6.175350427024845</v>
+        <v>6.779083332599807</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2412011557588741</v>
+        <v>0.2144500533192669</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>61.24303196133963</v>
+        <v>8.553839569168753</v>
       </c>
       <c r="C20" t="n">
-        <v>7.991595164138735</v>
+        <v>8.20887944489354</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5753970470642302</v>
+        <v>0.2305892196278478</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>62.7699285833482</v>
+        <v>8.787655798103096</v>
       </c>
       <c r="C21" t="n">
-        <v>6.997814838622887</v>
+        <v>7.650222013619538</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4132241951090982</v>
+        <v>0.3537081982816225</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>63.00336102702875</v>
+        <v>8.931805214251732</v>
       </c>
       <c r="C22" t="n">
-        <v>9.883018512738005</v>
+        <v>8.698212674869605</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3097403459487711</v>
+        <v>0.3269650471423707</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66.61018604362357</v>
+        <v>9.139857850674165</v>
       </c>
       <c r="C23" t="n">
-        <v>6.870121365476269</v>
+        <v>5.388171653114236</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3062844249970801</v>
+        <v>0.1784025650300191</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69.00924587250985</v>
+        <v>9.562583029763971</v>
       </c>
       <c r="C24" t="n">
-        <v>4.272781727681512</v>
+        <v>8.125336254109415</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2307180108944096</v>
+        <v>0.5202367307830988</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>72.16433505228871</v>
+        <v>10.25137633437359</v>
       </c>
       <c r="C25" t="n">
-        <v>7.312852083571568</v>
+        <v>9.427043254583394</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3477843473488392</v>
+        <v>0.2085261011093317</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>86.14798832254395</v>
+        <v>12.31801888793227</v>
       </c>
       <c r="C26" t="n">
-        <v>5.326393464971925</v>
+        <v>6.109194851005064</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1652700000611327</v>
+        <v>0.2248943454686709</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>86.72758535165728</v>
+        <v>12.78081507386602</v>
       </c>
       <c r="C27" t="n">
-        <v>10.07705109512845</v>
+        <v>6.253946194119963</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4781112240141346</v>
+        <v>0.2715311269958803</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>93.59971435937406</v>
+        <v>13.74425616385839</v>
       </c>
       <c r="C28" t="n">
-        <v>8.627388741356224</v>
+        <v>4.717306927339344</v>
       </c>
       <c r="D28" t="n">
-        <v>0.448018986630498</v>
+        <v>0.1625830415092966</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96.54126196941966</v>
+        <v>13.95418158958572</v>
       </c>
       <c r="C29" t="n">
-        <v>8.890480624954268</v>
+        <v>3.005169580779488</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2989581383047754</v>
+        <v>0.1549936499959571</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>97.13500192098071</v>
+        <v>14.06907101269147</v>
       </c>
       <c r="C30" t="n">
-        <v>4.088228404893706</v>
+        <v>3.236606532460256</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3889073095666122</v>
+        <v>0.09929296900081799</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>97.91552222228573</v>
+        <v>14.22387737760664</v>
       </c>
       <c r="C31" t="n">
-        <v>3.533986550273323</v>
+        <v>10.1734466513017</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2417810556901358</v>
+        <v>0.2628025088238454</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,2365 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>98.71966332945068</v>
+        <v>14.71749836869907</v>
       </c>
       <c r="C32" t="n">
-        <v>4.21631967867151</v>
+        <v>2.798173713161987</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3638053043824337</v>
+        <v>0.3379596781273356</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>14.91238861263574</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.34809579412529</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.07965846607369369</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>17.09494786236728</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.06455097201227</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1953064496055442</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>17.38281443468074</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.35455283424866</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1957307289072895</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>17.93114692059219</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.9605828729021</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2032633644308142</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>19.04992608294976</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.65795642262037</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1556032978302959</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19.25072417520427</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.365534820089253</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2888079206931514</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>19.42650087705843</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.093731155760284</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2376979927695875</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20.30489388331591</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.944332184699537</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3743973989470746</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20.6604624045986</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.262606204468259</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3971950804845861</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20.86648613676482</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.869932563428842</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.439745964933984</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>21.60030827367034</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6.641201749885522</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4425478672178666</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21.74932730886862</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.460071453487891</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1576264776495734</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>21.79562984924486</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.968988969111075</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.199587886337943</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>22.2954260803322</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.345500101747611</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2563492009004381</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>24.77522901780901</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.97687341305104</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4539712889453882</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>25.96376679971008</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.57914736845736</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2919772532787991</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>26.016795059433</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.132762790559258</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.1477547959210847</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>26.32780665463257</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.269266933516523</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.3204305572472953</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>26.66034043262918</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9.399725148666931</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.276622667853955</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>27.56916008606241</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7.082135198095389</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2085085690556238</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>27.82945384373465</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.725376462772096</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.168102742614859</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>27.95715971978485</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5.536331459671549</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.304129888797701</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>28.16590626559201</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10.18767762766529</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1563580603713065</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>28.95055333448696</v>
+      </c>
+      <c r="C56" t="n">
+        <v>11.95775746161983</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.3625022337569058</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>29.15402077647935</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9.081073559411198</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.6542214261171896</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>30.37789048908848</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.796152446873411</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.4168355704073886</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>31.39686983525899</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5.552993771091195</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.3369408077693783</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>32.34695794785566</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5.905122568649577</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.4565648954931931</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32.88287362846847</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.329031326082528</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.1338098524913366</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>36.62212422504243</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7.104258910917517</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5172313297363805</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>36.81074975265518</v>
+      </c>
+      <c r="C63" t="n">
+        <v>9.053698360928262</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.4577942093270307</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>37.25313305641134</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.990645992389551</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.2060660185165903</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>37.94401756422953</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7.715527073663464</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3438923231800774</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>38.00775999075004</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6.988411367090749</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.2908604317878776</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>38.30294027338566</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.85584497556793</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.3593337290151855</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>38.3649266889735</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.103869669765881</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.3993860540771689</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>38.68157435534421</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8.270127939589067</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.4608092937673926</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>39.29547831730967</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7.282499684094057</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.06971339602183729</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>39.39100454196055</v>
+      </c>
+      <c r="C71" t="n">
+        <v>11.14471141499232</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.2746146360155325</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>39.78935390581155</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6.394307796838618</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8379045601417785</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>40.42944402924697</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.698868645329758</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.6456519302985093</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>40.68695322042759</v>
+      </c>
+      <c r="C74" t="n">
+        <v>10.20874813242906</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.4421367119437284</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>41.91342147029971</v>
+      </c>
+      <c r="C75" t="n">
+        <v>10.01235979570405</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.279873037306743</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>42.87959385651635</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5.270496057307315</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.1486528017415053</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>44.006303228318</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10.02435282249715</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.3486954208473971</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>45.13331985607024</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6.621259752289488</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.3201482683799211</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>45.32044741886679</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.106571156965369</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.2302276329031711</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>45.41748897029065</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.294848570322076</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.1025402751944157</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>46.30296643351569</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.351259817171493</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.09484145856284261</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>46.33180005705549</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6.102201158940961</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.4200302622993002</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>46.68832229081364</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.64615340683631</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.371723728131995</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>47.36498218804757</v>
+      </c>
+      <c r="C84" t="n">
+        <v>5.671389482854197</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.2911661155706962</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>47.70894873251149</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.47425948055438</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.1443386335128603</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>47.73255181507301</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.916150310193831</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.2952794183755622</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>48.2892600250203</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9.170958413672682</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.2027893740976125</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>50.37208021514387</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6.136863054700313</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.3118857985046409</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>50.76321870725229</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.958040434313522</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.3962198028954283</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>51.28940509961437</v>
+      </c>
+      <c r="C90" t="n">
+        <v>9.543808845487954</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.3995811651198667</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>51.95815770705495</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6.140083344880086</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1824387005810862</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>52.57733520961728</v>
+      </c>
+      <c r="C92" t="n">
+        <v>11.18236504546867</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.4012956419334424</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>52.66531806256878</v>
+      </c>
+      <c r="C93" t="n">
+        <v>8.364412954289122</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.1405356035697475</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>53.21639668559892</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.50411191768858</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.3279673478871721</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>53.57818115184381</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6.967756399940305</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3088874157095723</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>54.3485829529717</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7.693796590294387</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5527054382371952</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>54.55424582521101</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.803343346060667</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1408810879496955</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>54.60957431158408</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.950338862147798</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.261467165992691</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>54.63558576510646</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7.104354407356857</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.2194856315079616</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>54.92359463758886</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.233978289688567</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.3996824142710825</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>55.0878232106967</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.242022914540767</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.130293414016147</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>55.32866191385983</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.790380501793219</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.1150205893990714</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>55.81588784640974</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3.278156658771289</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.2906243881981905</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>55.94277467890993</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.040702648796754</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.41263133857588</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>56.11137656007229</v>
+      </c>
+      <c r="C105" t="n">
+        <v>11.97527584809848</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.3951247410306737</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>57.16950025953038</v>
+      </c>
+      <c r="C106" t="n">
+        <v>8.620293253455392</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.2335455268103842</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>57.4771551527835</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.353113488506099</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.1592961110712899</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>57.49250825200866</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.857687132562182</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.2425510029198725</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>57.60833133262383</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.992179272762746</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.3000792538665706</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>58.14850253662351</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.8944380707808</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.2669222385389231</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>58.50268057706768</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.602527342712873</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.3425365982626309</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>58.66608217821486</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.796949593131688</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.3042340407192521</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>58.91788477020661</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.522768565169345</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.2804825255064708</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>59.04041172285222</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.968650879099401</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.3285858534191609</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>59.18425533063732</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.430363132509956</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.216789090210058</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>59.34982214295626</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.249597487243312</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.2782010635610773</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>59.35967763685287</v>
+      </c>
+      <c r="C117" t="n">
+        <v>8.826835533201557</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.5354166856411106</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>60.00683174675639</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5.873283544035163</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.4358964785368295</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>60.64548851517487</v>
+      </c>
+      <c r="C119" t="n">
+        <v>8.022408834546273</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.3442269312991794</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>61.27922418288849</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3.033486585275414</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.225821070885934</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>62.020703724457</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.671300943898705</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.5435642312656115</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>62.41057579934563</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.79880880826551</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.2313724156554864</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>62.74598618025691</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5.485588917137091</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.2036345532539711</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>62.78245702155822</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.536961522900644</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.3543792114878698</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>63.84356614967351</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.75232623113968</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4028087090977268</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>64.09815492600923</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.283136267019544</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.1980882114265668</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>64.49709249167037</v>
+      </c>
+      <c r="C127" t="n">
+        <v>8.026302955753829</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.1582524709824747</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>64.87604365832998</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.937316347415686</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.289841300017086</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>65.15349080206465</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.997051187741565</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.1987249229144141</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>65.20553738999899</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.090258653667846</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.463814007873185</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>65.42009489752759</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.347298637954381</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.5713986511045823</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>66.50767758825602</v>
+      </c>
+      <c r="C132" t="n">
+        <v>11.7344352570183</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.2073517682941152</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>67.062579297703</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9.514006372456777</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.3950305788730614</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>67.52363483199571</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.599794439287685</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.3927541415917385</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>67.80877542053898</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.200570316868843</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.3256244128087579</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>68.08329044881577</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7.661722907493445</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.4608189380869577</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>68.86281525802973</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.703581701506501</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.1727911194440011</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>68.99794161554206</v>
+      </c>
+      <c r="C138" t="n">
+        <v>7.220354961689487</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.09902650262059851</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>69.22430820965921</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.338829486192918</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.1559603395853306</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>69.70828526486427</v>
+      </c>
+      <c r="C140" t="n">
+        <v>10.10540505715375</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.1974211140541034</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>70.77504079541788</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.52637739982862</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.1599380808462778</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>71.0130805264706</v>
+      </c>
+      <c r="C142" t="n">
+        <v>10.75231654309236</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.4033880793304253</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>71.02769134150242</v>
+      </c>
+      <c r="C143" t="n">
+        <v>8.075106376984419</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.4068881020070522</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>71.57289906385165</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9.099451824090815</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.4894978479933768</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>72.55723432023564</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.252057928796969</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.2153543549672732</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>72.72199452121198</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.441261121550905</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.2901097514135776</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>72.96749546807116</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.526397288613895</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.4653412618394745</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>73.04113074420931</v>
+      </c>
+      <c r="C148" t="n">
+        <v>10.51137712836601</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.2678495774988645</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>73.09703918380286</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.81486862340469</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.3089810438781334</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>73.16753552233808</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15.13471529463802</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.3176198479260108</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>73.84203611361235</v>
+      </c>
+      <c r="C151" t="n">
+        <v>8.451754037249907</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.3051005009819192</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>74.92108925062873</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.196781927916617</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.3597518182170161</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>74.97501269873396</v>
+      </c>
+      <c r="C153" t="n">
+        <v>8.499184299710745</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.4509002577694244</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>75.9972677852259</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.658655034437585</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.4803831117213223</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>76.5137806638904</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.973337446267522</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.1335738948798063</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>76.78789842366884</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.228775186560571</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.2151208069779694</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>77.41350034707908</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7.669726715498371</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.3315145367701988</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>77.82419504713262</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5.359470719026319</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.634474120205045</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>77.93549823513791</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.641125774765548</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.2618609633707152</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>78.05935852213464</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.68883877561623</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0745127370180096</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>78.49415365604399</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9.078245553736194</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.3367580691441479</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>79.34942188015123</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.526096703225024</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.3237390252774107</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>79.41615641339892</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.629312652992263</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.3632421337663733</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>80.04088714721817</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3.744899275088188</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.237843582907015</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>80.14782491171279</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.543059712748645</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.2492097285521135</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>80.89120561274463</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.53284639921307</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3296912182355696</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>81.43215001808434</v>
+      </c>
+      <c r="C167" t="n">
+        <v>14.84120023035558</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.327870487684111</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>81.96940255194194</v>
+      </c>
+      <c r="C168" t="n">
+        <v>13.65104780255578</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.3750354614839509</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>82.0746049657608</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6.232886127899229</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.391697271343706</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>82.17479228106443</v>
+      </c>
+      <c r="C170" t="n">
+        <v>8.886513928035843</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.2947343262304765</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>82.2255472917556</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.148879273564857</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.14960841812955</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>82.29341796776752</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3.02635396555264</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.2034969406399938</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>82.70908757254062</v>
+      </c>
+      <c r="C173" t="n">
+        <v>6.92068204243935</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.3920550420246158</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>82.75092463360728</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7.865480411676049</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1321801444797042</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>83.01453921579009</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5.734038640842935</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.3467701257902429</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>83.86785770287561</v>
+      </c>
+      <c r="C176" t="n">
+        <v>10.76162485387796</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.2949783429203233</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>84.30449107681132</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.595273547245982</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.201699586385135</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>85.69102056224092</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.713122383451049</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.2591696479181803</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>86.69219645186749</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.043477315972166</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4915199936545601</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>88.35715647309709</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3.425636139888027</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.2144758809880179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>88.41589654140165</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.407435964011005</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.2118501828106669</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>88.58300037843142</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.65685557581579</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.1463125691383209</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>88.93528838467721</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.998000177803792</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.2869408353884174</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>90.65884615239041</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.865021957054923</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1223630815889987</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>91.9830132930016</v>
+      </c>
+      <c r="C185" t="n">
+        <v>8.479093174977764</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.3649080145993467</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>92.48508969946168</v>
+      </c>
+      <c r="C186" t="n">
+        <v>8.292510856904993</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.4643635133359058</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>93.16099950926133</v>
+      </c>
+      <c r="C187" t="n">
+        <v>6.667024900621949</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.343463314496703</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>93.55599114762333</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.154135373170717</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.2535981150688006</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>93.74554503990107</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.993414654383859</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.08434221386622417</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>94.18329295048571</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5.938783953951669</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.3768928993857463</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>94.64353947792678</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5.761437532341965</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.3265323493778286</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>94.77435225903295</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.80515866890561</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.2909140866386265</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>95.32605173025685</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9.957278963572682</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.2393284841516239</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>95.40693591937932</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.76444717834852</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.5320837202489136</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>95.6099508035533</v>
+      </c>
+      <c r="C195" t="n">
+        <v>8.977895999336807</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.3749008405198144</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>95.81241785626767</v>
+      </c>
+      <c r="C196" t="n">
+        <v>7.881452498188658</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.3004551085383781</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>96.31040274959246</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.393241086858963</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.269488935583403</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>98.18300962275262</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.079328917906232</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.1754659363625353</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>98.56305174331071</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.677036114602946</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.5405746577159369</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>98.93850453840167</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.504873651962107</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.4895681585843177</v>
       </c>
     </row>
   </sheetData>
